--- a/department app/schedules.xlsx
+++ b/department app/schedules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\automation\department app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\automation\Attendance manager\department app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EBB436-908E-41FB-8668-63EE71E9EAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D835DD9-1DFF-4582-8656-4F1E4BDB337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="540" windowWidth="18280" windowHeight="13100" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Y1_Pharmacology_schedule" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="61">
   <si>
     <t>Year</t>
   </si>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,16 +681,16 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -701,16 +701,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -721,16 +721,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -741,16 +741,16 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -766,11 +766,11 @@
       <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
+      <c r="E7" s="7">
+        <v>45413</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -781,16 +781,16 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
+      <c r="E8" s="7">
+        <v>45414</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -801,16 +801,16 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
+      <c r="E9" s="7">
+        <v>45415</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -818,19 +818,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
+      <c r="E10" s="7">
+        <v>45416</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -838,19 +838,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
+      <c r="E11" s="7">
+        <v>45417</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -866,11 +866,11 @@
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
+      <c r="E12" s="7">
+        <v>45413</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -886,11 +886,11 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
+      <c r="E13" s="7">
+        <v>45414</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -898,19 +898,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
+      <c r="E14" s="7">
+        <v>45415</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -918,19 +918,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
+      <c r="E15" s="7">
+        <v>45416</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -938,19 +938,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>18</v>
+      <c r="E16" s="7">
+        <v>45417</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -967,10 +967,10 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -978,19 +978,19 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1007,10 +1007,10 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1018,19 +1018,19 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1038,16 +1038,16 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>22</v>
@@ -1058,19 +1058,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1078,19 +1078,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1098,16 +1098,16 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>22</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1127,10 +1127,10 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1138,16 +1138,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>24</v>
@@ -1158,16 +1158,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>20</v>
@@ -1178,24 +1178,131 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+    <sortCondition ref="A2:A35"/>
+    <sortCondition ref="B2:B35"/>
+    <sortCondition ref="C2:C35"/>
+    <sortCondition ref="E2:E35"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
